--- a/Bot/Data_shopee/data_1_1_3.xlsx
+++ b/Bot/Data_shopee/data_1_1_3.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:L61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,13 +382,13 @@
         <v>Fd4QmV src</v>
       </c>
       <c r="C1" t="str">
+        <v>hxLzax</v>
+      </c>
+      <c r="D1" t="str">
         <v>FTxtVW</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>DgXDzJ</v>
-      </c>
-      <c r="E1" t="str">
-        <v>iMq5a7</v>
       </c>
       <c r="F1" t="str">
         <v>bPcAVl</v>
@@ -397,900 +397,834 @@
         <v>k9JZlv</v>
       </c>
       <c r="H1" t="str">
+        <v>OwmBnn</v>
+      </c>
+      <c r="I1" t="str">
+        <v>JVW3E2</v>
+      </c>
+      <c r="J1" t="str">
+        <v>customized-overlay-image src</v>
+      </c>
+      <c r="K1" t="str">
         <v>bx++ig 2</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>k9JZlv 2</v>
-      </c>
-      <c r="J1" t="str">
-        <v>OwmBnn</v>
-      </c>
-      <c r="K1" t="str">
-        <v>JVW3E2</v>
-      </c>
-      <c r="L1" t="str">
-        <v>hxLzax</v>
-      </c>
-      <c r="M1" t="str">
-        <v>customized-overlay-image src</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-42-Colors-Nail-gel-polish-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-UV-LED%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-(%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A)-i.795198852.18345143038?sp_atk=d0f72f4e-23b7-451f-b9f3-5dcb7c78677a&amp;xptdk=d0f72f4e-23b7-451f-b9f3-5dcb7c78677a</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Peptide-Acne-Gel-B3-Acne-Concentrate-Serum-i.15147300.14207904594?sp_atk=9894cb97-aed8-4ec3-a225-409584ea64a8&amp;xptdk=9894cb97-aed8-4ec3-a225-409584ea64a8</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/0a78af71d3fbd59861fec0ca374d4414_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-lh6fzgewh2wk88_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>-45%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D2" t="str">
-        <v>สีเจล เจลทาเล็บ สีเจลทาเล็บ 42 Colors Nail gel polish สีสวย UV/LEDสีเจล สีทาเล็บเจล แแบบต้องอบ (ต้องใช้เครื่องอบ)</v>
+        <v>-70%</v>
       </c>
       <c r="E2" t="str">
-        <v>ซื้อ 5 ชิ้น ลด ฿5</v>
+        <v>ถูก/แท้/ส่งฟรี (หลอด) เจลแต้มสิว MizuMi เซรั่มลดรอยสิว MizuMi มิซึมิ Peptide Acne Gel B3 Acne Concentrate Serum</v>
       </c>
       <c r="F2" t="str">
-        <v>-</v>
+        <v>฿229</v>
       </c>
       <c r="G2" t="str">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H2" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 67.5พัน ชิ้น</v>
       </c>
       <c r="I2" t="str">
-        <v>15</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J2" t="str">
-        <v>ขายแล้ว 84พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/Monochrome-Net-Red-Rouge-Blush-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.3049984196?sp_atk=6f8728f8-ec6a-4929-89ca-41df4b66774d&amp;xptdk=6f8728f8-ec6a-4929-89ca-41df4b66774d</v>
+        <v>https://shopee.co.th/DKL901(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%A1%E0%B8%B2%E0%B8%81-Eye-shadow-9-colors-dikalu-i.25539018.9738907303?sp_atk=a41e1ca9-1bf6-4c0d-a327-d11f18ffaa2c&amp;xptdk=a41e1ca9-1bf6-4c0d-a327-d11f18ffaa2c</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/db97b3f516abe7d529e7da5cf584531a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0d1cf655be716c7509c00871f594663f_tn</v>
       </c>
       <c r="C3" t="str">
-        <v>-91%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D3" t="str">
-        <v>Monochrome Net Red Rouge Blush บลัชออน เนื้อแมตต์ สำหรับแต่งหน้า</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>DKL901(ใหม่/แท้) พาเลทอายแชโดว์ 9 สี แมท เนื้อใยไหม ประกายชิมเมอร์ สีสวยมาก Eye shadow 9 colors dikalu</v>
       </c>
       <c r="F3" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H3" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 51.5พัน ชิ้น</v>
       </c>
       <c r="I3" t="str">
-        <v>15</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J3" t="str">
-        <v>ขายแล้ว 80.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M3" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B8%9F%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99-%E0%B8%82%E0%B8%B2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%AD%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B5%E0%B8%94-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-i.526502504.17200364024?sp_atk=f9749bae-4b11-4c4b-87f8-436a4986b070&amp;xptdk=f9749bae-4b11-4c4b-87f8-436a4986b070</v>
+        <v>https://shopee.co.th/Abpopa-MengJieShangPin%C2%AE-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87-%E0%B8%94%E0%B8%B9%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-5-%E0%B8%84%E0%B8%B9%E0%B9%88-i.93231183.18737569655?sp_atk=a35a4566-0506-49cf-8fba-e6310ccef7c7&amp;xptdk=a35a4566-0506-49cf-8fba-e6310ccef7c7</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-jynzsmdt9rovb0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/vn-11134201-23030-0bel62r4jcova6_tn</v>
       </c>
       <c r="C4" t="str">
-        <v>-57%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D4" t="str">
-        <v>🔥เครื่องกําจัดขนไฟฟ้า ขนาดเล็ก สําหรับผู้หญิง ชิ้นส่วนส่วนตัว รักแร้ ใบหน้า ริมฝีปาก ขน ขา ที่ปอกผม มีด เครื่องกำจัดขน</v>
+        <v>-78%</v>
       </c>
       <c r="E4" t="str">
-        <v>ซื้อ 3 ชิ้น ลด 2%</v>
+        <v>Abpopa MengJieShangPin® ขนตาปลอม แบบบาง ดูเป็นธรรมชาติ 5 คู่</v>
       </c>
       <c r="F4" t="str">
-        <v>-</v>
+        <v>฿159</v>
       </c>
       <c r="G4" t="str">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H4" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 29.7พัน ชิ้น</v>
       </c>
       <c r="I4" t="str">
-        <v>135</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J4" t="str">
-        <v>ขายแล้ว 51พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K4" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%F0%9F%90%8F(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-CARISTA-GOAT-MILK-KERATIN-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%B0-500-g.-i.78549877.12557325813?sp_atk=bf2337ff-d49f-4293-b129-5771149b2cf5&amp;xptdk=bf2337ff-d49f-4293-b129-5771149b2cf5</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-!%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E2%80%8B%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E2%80%8B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B8%E0%B8%81%E2%80%8B%E0%B8%AA%E0%B8%B5%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%B2%E0%B8%93-8ml-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%B8%E0%B9%89%E0%B8%A1-%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-i.289345869.18322762084?sp_atk=3c8bda79-9269-44e5-a63b-0f68bbb34ee7&amp;xptdk=3c8bda79-9269-44e5-a63b-0f68bbb34ee7</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/dbbb6d1d4a972ca7fdbc263721159442_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lmtncs5l6t8uc0_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>-99%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D5" t="str">
-        <v>🐏(แพคเกจใหม่) CARISTA GOAT MILK KERATIN คาริสต้า เคราตินนมแพะ 500 g.</v>
+        <v>-59%</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>สีใส !สินค้า​ขายดี​ พร้อมส่งในไทย สีเจลทาเล็บ ยาทาเล็บ ทุก​สีคุณภาพแน่นชัดสวย ปริมาณ 8ml สุดคุ้ม ต้องใช้เครื่องอบ</v>
       </c>
       <c r="F5" t="str">
-        <v>฿39</v>
+        <v>-</v>
       </c>
       <c r="G5" t="str">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>ขายแล้ว 29.9พัน ชิ้น</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J5" t="str">
-        <v>ขายแล้ว 157.7พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
       </c>
       <c r="K5" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>฿</v>
       </c>
       <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A7-i.389569487.4679605013?sp_atk=3fba9d30-f07e-4480-bd77-20a4338b3845&amp;xptdk=3fba9d30-f07e-4480-bd77-20a4338b3845</v>
+        <v>https://shopee.co.th/ANUA-Heartleaf-77-Soothing-Toner-%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B8%A7-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%82%E0%B8%A5%E0%B8%A1%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%AA%E0%B8%9A.-i.70998059.6946452197?sp_atk=928b16d8-d10b-4bd9-8a7b-a734769a6b0c&amp;xptdk=928b16d8-d10b-4bd9-8a7b-a734769a6b0c</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ljwjtwpuqisd35_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbn8-locuq3rs7lnk5e_tn</v>
       </c>
       <c r="C6" t="str">
-        <v>-96%</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กาว</v>
+        <v>-99%</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>ANUA Heartleaf 77% Soothing Toner อานัว โทนเนอร์พี่จุน ปลอบประโลมผิวและลดการอักเสบ.</v>
       </c>
       <c r="F6" t="str">
-        <v>-</v>
+        <v>฿200</v>
       </c>
       <c r="G6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 44.8พัน ชิ้น</v>
       </c>
       <c r="I6" t="str">
-        <v>8</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J6" t="str">
-        <v>ขายแล้ว 494.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <v/>
-      </c>
-      <c r="M6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-M1007-Music-Flower-Eyeliner-Gel-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-2-%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-24-%E0%B8%8A%E0%B8%A1-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.8930608.3424328419?sp_atk=deaead07-5d7a-4cc1-9ff6-3c01c873d5d1&amp;xptdk=deaead07-5d7a-4cc1-9ff6-3c01c873d5d1</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.127255001.9412365800?sp_atk=8e2c8430-f866-41f9-aa99-7d8016d50f44&amp;xptdk=8e2c8430-f866-41f9-aa99-7d8016d50f44</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/ff281a87e031eac7a1bef0cbb5e2a631_tn</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>-61%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D7" t="str">
-        <v>เจลเขียนคิ้ว M1007 Music Flower Eyeliner Gel เขียนคิ้ว + อายไลเนอร์ 2 ตลับ กันน้ำ 24 ชม เจลคิ้ว ติดทนนาน เจลอายไลเนอร์</v>
+        <v>-83%</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>ลิปสติก ลิปกลอส เนื้อเจลลี่ กันน้ำ ติดทนนาน</v>
       </c>
       <c r="F7" t="str">
-        <v>฿109</v>
+        <v>-</v>
       </c>
       <c r="G7" t="str">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>ขายแล้ว 19.3พัน ชิ้น</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J7" t="str">
-        <v>ขายแล้ว 114.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L7" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/kingshopping-%EF%BC%88%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-IR679-i.162894152.11543889282?sp_atk=d839c056-759e-41ff-b9e4-bb6dba736744&amp;xptdk=d839c056-759e-41ff-b9e4-bb6dba736744</v>
+        <v>https://shopee.co.th/%F0%9F%8C%B8(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-COSMIC-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%84-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%81-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%9E%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7-100-ml.-i.78549877.6442547811?sp_atk=c0301683-5cbd-4654-a8d1-4dc011026915&amp;xptdk=c0301683-5cbd-4654-a8d1-4dc011026915</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lhws6xjrmvir58_tn</v>
+        <v/>
       </c>
       <c r="C8" t="str">
-        <v>-67%</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>kingshopping （ร้านไทย)  2แผ่น/ซอง แผ่นแปะผม ที่แปะผม แผ่นติดผมแต่งหน้า แผ่นติดผม แผ่นเก็บผม IR679</v>
+        <v>-98%</v>
       </c>
       <c r="E8" t="str">
-        <v>ซื้อ 5 ชิ้น ลด 1%</v>
+        <v>🌸(แพคเกจใหม่) COSMIC คอสมิค คอสมิก มูสเทพกำจัดขน กำจัดขนรักแร้ กำจัดขนน้องสาว 100 ml.</v>
       </c>
       <c r="F8" t="str">
-        <v>฿3</v>
+        <v>฿189</v>
       </c>
       <c r="G8" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>ขายแล้ว 52.5พัน ชิ้น</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J8" t="str">
-        <v>ขายแล้ว 276.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%87%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-i.448548570.5691153043?sp_atk=3d6c4b72-ffac-46fa-8394-91c95d8d174e&amp;xptdk=3d6c4b72-ffac-46fa-8394-91c95d8d174e</v>
+        <v>https://shopee.co.th/%E3%80%90SHENZHOU%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-DIY-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B8%B8%E0%B8%94-i.171957933.19645108733?sp_atk=42fa4d1b-ac72-4872-b7b6-26042fca21bd&amp;xptdk=42fa4d1b-ac72-4872-b7b6-26042fca21bd</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/e4a4cec45c091d57447412803e0cf809_tn</v>
+        <v/>
       </c>
       <c r="C9" t="str">
-        <v>-88%</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>ของใช้ส่วนตัว ลดริ้วรอย ความมัน ความงามมาร์คหน้า แผ่นมาร์คหน้า มาส์กหน้า แผ่นมาส์กหน้า เเผ่นมาร์คหน้า เพิ่มความชุ่มชื้น</v>
+        <v>-25%</v>
       </c>
       <c r="E9" t="str">
-        <v>ซื้อ 3 ชิ้น ลด 1%</v>
+        <v>【SHENZHOU】เล็บปลอม สไตล์ฝรั่งเศส DIY 24 ชิ้น/ชุด</v>
       </c>
       <c r="F9" t="str">
-        <v>-</v>
+        <v>฿16</v>
       </c>
       <c r="G9" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H9" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 29.1พัน ชิ้น</v>
       </c>
       <c r="I9" t="str">
-        <v>3</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J9" t="str">
-        <v>ขายแล้ว 95.6พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K9" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.656187828.17856786016?sp_atk=d82ef9cf-7a55-4be2-bfc3-7e39b01cec26&amp;xptdk=d82ef9cf-7a55-4be2-bfc3-7e39b01cec26</v>
+        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)-%E0%B8%88%E0%B8%B8%E0%B8%AC%E0%B8%B2%E0%B9%80%E0%B8%AE%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%9A-Jula's-Herb-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87-Jula-julahreb-DDcream-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%B3%E0%B9%84%E0%B8%A2-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-C1-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-%E0%B8%94%E0%B8%B5%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%95%E0%B8%87%E0%B9%82%E0%B8%A1-i.32233698.10829642164?sp_atk=1b3e4555-89bd-4028-ae35-600fbfa73f8b&amp;xptdk=1b3e4555-89bd-4028-ae35-600fbfa73f8b</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-ljz67566zkuh9a_tn</v>
+        <v/>
       </c>
       <c r="C10" t="str">
-        <v>-85%</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>(หลอด/ยกกล่อง) จุฬาเฮิร์บ Jula's Herb ครีมซอง Jula julahreb DDcream เซรั่มลำไย ดีดีครีม C1 เซรั่มแตงโม ดีดีแตงโม</v>
       </c>
       <c r="F10" t="str">
         <v>-</v>
       </c>
       <c r="G10" t="str">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="H10" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 58พัน ชิ้น</v>
       </c>
       <c r="I10" t="str">
-        <v>12</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J10" t="str">
-        <v>ขายแล้ว 90.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.289949150.9157376486?sp_atk=cdedd69f-b751-44e7-80b0-456f9b54548d&amp;xptdk=cdedd69f-b751-44e7-80b0-456f9b54548d</v>
+        <v>https://shopee.co.th/%E2%9C%A8COD%E2%9C%A8PinkyFocus-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%83%E0%B8%AA-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-i.409094973.16280250890?sp_atk=e9203088-637a-4ce5-b357-d9193800709f&amp;xptdk=e9203088-637a-4ce5-b357-d9193800709f</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/51303274fb37200f314bde8eb7cf1aad_tn</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v>-83%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D11" t="str">
-        <v>มาสคาร่าขนาดเล็ก หัวแปรงโค้งยาว กันน้ำและกันเหงื่อ ไม่เลอะ สําหรับผู้เริ่มต้นปัดขนตา</v>
+        <v>-95%</v>
       </c>
       <c r="E11" t="str">
-        <v>ซื้อ 6 ชิ้น ลด 3%</v>
+        <v>✨COD✨PinkyFocus ลิปโคลนกระจกใส ติดทนนาน ไม่ซีดจาง สําหรับผู้หญิง ติดทนนาน เคลือบริมฝีปาก</v>
       </c>
       <c r="F11" t="str">
-        <v>฿58</v>
+        <v>-</v>
       </c>
       <c r="G11" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>ขายแล้ว 17.3พัน ชิ้น</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J11" t="str">
-        <v>ขายแล้ว 147.8พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K11" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%B5%E2%9C%94%EF%B8%8F1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%8B%E0%B8%AD%E0%B8%87-1-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B5-2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E2%9C%94%EF%B8%8F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%AA%E0%B8%A7%E0%B8%A2%E0%B8%87%E0%B8%B2%E0%B8%A1-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-i.161955082.5721833660?sp_atk=7016a2fb-16d8-4a97-bf52-078b0083734a&amp;xptdk=7016a2fb-16d8-4a97-bf52-078b0083734a</v>
+        <v>https://shopee.co.th/%F0%9F%8E%80(%E0%B8%A1%E0%B8%B5-10-%E0%B8%A3%E0%B8%AA%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4)-Victory-Secret-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B9%8C%E0%B8%A2%E0%B8%A7%E0%B8%B4%E0%B8%84%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B8%B5%E0%B9%88-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-10-ml.-i.78549877.14011844572?sp_atk=2a13ad9e-618e-4886-be78-90117abc7630&amp;xptdk=2a13ad9e-618e-4886-be78-90117abc7630</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lmehr8xhfclqc5_tn</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>-67%</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>🔥แผ่นแปะผม เลือกสี✔️1 บาท/ซอง [1 ซองมี 2 แผ่น]✔️พร้อมส่ง แต่งหน้า แผ่นติดผมสวยงาม ราคาส่ง แผ่นเก็บผม ที่แปะผม</v>
+        <v>-99%</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>🎀(มี 10 รสชาติ) Victory Secret สเปร์ยวิคตอรี่ สเปรย์ฉีดจุดซ่อนเร้น ขนาด 10 ml.</v>
       </c>
       <c r="F12" t="str">
-        <v>฿3</v>
+        <v>฿199</v>
       </c>
       <c r="G12" t="str">
         <v>1</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>ขายแล้ว 23.1พัน ชิ้น</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J12" t="str">
-        <v>ขายแล้ว 3.3ล้าน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="K12" t="str">
-        <v>จังหวัดชัยภูมิ</v>
+        <v/>
       </c>
       <c r="L12" t="str">
         <v/>
-      </c>
-      <c r="M12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89100-%F0%9F%94%A5%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5-Madame-Fin-30ml.%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%83%E0%B8%8A%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%89%E2%80%8B%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E2%80%8B-i.526457740.10745051136?sp_atk=7a591f95-a4cf-49ac-b153-59f903858afc&amp;xptdk=7a591f95-a4cf-49ac-b153-59f903858afc</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A7-i.389569487.4679605013?sp_atk=aae1e604-4d1a-4662-9993-910582109fb6&amp;xptdk=aae1e604-4d1a-4662-9993-910582109fb6</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/2db22a97aeeeae8fc518e84cf41053de_tn</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>พร้อมส่งทุกสี/ของแท้100%🔥น้ำหอมมาดามฟิน ครบทุกสี Madame Fin 30ml.ไม่ใช่ของเทียบแท้​ไม่กรีดรหัส​</v>
+        <v>-96%</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กาว</v>
       </c>
       <c r="F13" t="str">
         <v>-</v>
       </c>
       <c r="G13" t="str">
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="H13" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 494.8พัน ชิ้น</v>
       </c>
       <c r="I13" t="str">
-        <v>420</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J13" t="str">
-        <v>ขายแล้ว 45พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K13" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L13" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M13" t="str">
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9F%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%AA%E0%B8%B5-i.171353391.18461182582?sp_atk=e2b281b7-59b8-4685-b604-a31e09f7e74e&amp;xptdk=e2b281b7-59b8-4685-b604-a31e09f7e74e</v>
+        <v>https://shopee.co.th/Banana-Boat-Aqua-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%82%E0%B8%9A%E0%B9%89%E0%B8%97.-i.70998059.9245467680?sp_atk=be0e1a3e-79a4-4f26-b430-cb5bf2ba336c&amp;xptdk=be0e1a3e-79a4-4f26-b430-cb5bf2ba336c</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lgbwadro0fpa4f_tn</v>
+        <v/>
       </c>
       <c r="C14" t="str">
-        <v>-75%</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>สติกเกอร์ฟอยล์ ลายการ์ตูนดวงจันทร์ และดาว 3 มิติ กันน้ํา สําหรับตกแต่งเล็บ DIY จํานวน 1 ชิ้น สุ่มสี</v>
+        <v>-90%</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>Banana Boat Aqua กันแดดบานาน่า โบ้ท.</v>
       </c>
       <c r="F14" t="str">
-        <v>-</v>
+        <v>฿435</v>
       </c>
       <c r="G14" t="str">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H14" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 74.8พัน ชิ้น</v>
       </c>
       <c r="I14" t="str">
-        <v>5</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J14" t="str">
-        <v>ขายแล้ว 17.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L14" t="str">
         <v/>
-      </c>
-      <c r="M14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/YOTAI-%E2%9D%A4%EF%B8%8FLAMEILA%E2%9D%A4%EF%B8%8F-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%97%E0%B8%99%E0%B8%AA%E0%B9%89%E0%B8%A1-%E0%B8%9A%E0%B8%A3%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B8%9E%E0%B8%B5%E0%B8%8A-%E0%B8%AA%E0%B9%89%E0%B8%A1%E0%B8%9E%E0%B8%B5%E0%B8%8A-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B5-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-i.165601508.9596244077?sp_atk=750f73e8-4353-4f18-836d-28d611c05091&amp;xptdk=750f73e8-4353-4f18-836d-28d611c05091</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.273622042.12196701574?sp_atk=f88d105f-310c-441e-b856-677e0f72b818&amp;xptdk=f88d105f-310c-441e-b856-677e0f72b818</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/bbb490f29226494bfa906bf9939d238f_tn</v>
+        <v/>
       </c>
       <c r="C15" t="str">
-        <v>-83%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D15" t="str">
-        <v>YOTAI ❤️LAMEILA❤️ บลัชออน บลัชออนโทนส้ม บรัชออนทาแก้ม ชมพูพีช ส้มพีช เนื้อดี สีสวย ติดทน</v>
+        <v>-97%</v>
       </c>
       <c r="E15" t="str">
-        <v>ซื้อ 6 ชิ้น ลด 2%</v>
+        <v>ลิปกลอส เนื้อแมตต์ กันน้ํา ติดทนนาน</v>
       </c>
       <c r="F15" t="str">
-        <v>฿69</v>
+        <v>-</v>
       </c>
       <c r="G15" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>ขายแล้ว 195.3พัน ชิ้น</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J15" t="str">
-        <v>ขายแล้ว 55.2พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K15" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1-3-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-KOTA-COSMETICS-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.59913582.23214646367?sp_atk=9672b3a3-f583-4438-8d00-890c16ffcf91&amp;xptdk=9672b3a3-f583-4438-8d00-890c16ffcf91</v>
+        <v>https://shopee.co.th/Butterfly-Thai-Perfume-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-2-ml.-(%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9F%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B9%80%E0%B8%9E%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9F%E0%B8%B9%E0%B8%A1)-i.243620979.7026285374?sp_atk=716b136f-31e9-4c73-87a1-9e7f522e7193&amp;xptdk=716b136f-31e9-4c73-87a1-9e7f522e7193</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-ljo0tcz94409ae_tn</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v>-5%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D16" t="str">
-        <v>ยาย้อม 3 สีใหม่ สีผม KOTA COSMETICS สีย้อมผมออร์แกนิคแท้ 💯%นวัตกรรมใหม่ผลิตจากรากโสมธรรมชาติ</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>Butterfly Thai Perfume ขนาด 2 ml. (น้ำหอมบัตเตอร์ฟลาย ไทย เพอร์ฟูม)</v>
       </c>
       <c r="F16" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H16" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 52.5พัน ชิ้น</v>
       </c>
       <c r="I16" t="str">
-        <v>176</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J16" t="str">
-        <v>ขายแล้ว 13.7พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="K16" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L16" t="str">
-        <v/>
-      </c>
-      <c r="M16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99-%E0%B8%A5%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%95%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%9A%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99-%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9C%E0%B8%A5%E0%B8%99%E0%B8%B9%E0%B8%99-Softcare-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-i.36374656.5438340070?sp_atk=8ab6ce26-b860-4f6e-bd3e-0eecbb986788&amp;xptdk=8ab6ce26-b860-4f6e-bd3e-0eecbb986788</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A5%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-3D-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AB%E0%B8%B4%E0%B8%99%E0%B8%9D%E0%B8%B1%E0%B8%87%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-%E3%80%9024-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E3%80%91-i.566134482.21524562080?sp_atk=77d75579-f2bb-4caa-b29e-02bd7ec5bb32&amp;xptdk=77d75579-f2bb-4caa-b29e-02bd7ec5bb32</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/7a567f3f6b5c44616d76936307ba173b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpyskvbvq0ig74_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>-8%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D17" t="str">
-        <v>ศิริราช ซอฟท์แคร์ ครีมหมอศิริราช ลดรอยแผลเป็น ลดผิวแตกลาย ลบรอยแผลเป็น ท้องลาย แผลนูน Softcare ซอฟแคร์ศิริราช</v>
+        <v>-92%</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>เล็บปลอม พลอยเทียม 3D พร้อมหินฝังเพชรเทียม และกาว ประหยัดเวลา สําหรับตกแต่งเล็บ DIY 【24 ชิ้น】</v>
       </c>
       <c r="F17" t="str">
-        <v>฿65</v>
+        <v>-</v>
       </c>
       <c r="G17" t="str">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>ขายแล้ว 112.4พัน ชิ้น</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J17" t="str">
-        <v>ขายแล้ว 55พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K17" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>฿</v>
       </c>
       <c r="L17" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M17" t="str">
-        <v/>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A5%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-3D-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AB%E0%B8%B4%E0%B8%99%E0%B8%9D%E0%B8%B1%E0%B8%87%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-%E3%80%9024-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E3%80%91-i.566134482.21524562080?sp_atk=7551b4bb-910d-44fd-b0c7-5354a28eca76&amp;xptdk=7551b4bb-910d-44fd-b0c7-5354a28eca76</v>
+        <v>https://shopee.co.th/%F0%9F%8D%8AVC-VIt-C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8B%E0%B8%B5%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8B%E0%B8%B5%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%B9%E0%B9%88%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-7-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-10-%E0%B8%8B%E0%B8%AD%E0%B8%87-i.78549877.13676673899?sp_atk=2d6e862c-5968-4c32-a901-1aa654b7c359&amp;xptdk=2d6e862c-5968-4c32-a901-1aa654b7c359</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpyskvbvq0ig74_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-hp3dz1h95dmv3d_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>-92%</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>เล็บปลอม พลอยเทียม 3D พร้อมหินฝังเพชรเทียม และกาว ประหยัดเวลา สําหรับตกแต่งเล็บ DIY 【24 ชิ้น】</v>
+        <v>-99%</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>🍊VC VIt C ครีมวิตซีน้องฉัตร วิตซีซองคู่น้องฉัตร มาร์คน้องฉัตร ขนาด 7 กรัม ยกกล่อง 10 ซอง</v>
       </c>
       <c r="F18" t="str">
-        <v>-</v>
+        <v>฿45</v>
       </c>
       <c r="G18" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 281.3พัน ชิ้น</v>
       </c>
       <c r="I18" t="str">
-        <v>18</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J18" t="str">
-        <v>ขายแล้ว 112.4พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="K18" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L18" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M18" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%97%E0%B8%B2%E0%B8%95%E0%B8%B2-4.8g-OD276-odbo-Signature-Eyeshadow-Palette-i.1151469.19027757698?sp_atk=d185f26e-4577-485b-a117-6a1a6ede6337&amp;xptdk=d185f26e-4577-485b-a117-6a1a6ede6337</v>
+        <v>https://shopee.co.th/YOTAI-%E2%9D%A4%EF%B8%8FLAMEILA%E2%9D%A4%EF%B8%8F-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%97%E0%B8%99%E0%B8%AA%E0%B9%89%E0%B8%A1-%E0%B8%9A%E0%B8%A3%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B8%9E%E0%B8%B5%E0%B8%8A-%E0%B8%AA%E0%B9%89%E0%B8%A1%E0%B8%9E%E0%B8%B5%E0%B8%8A-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B5-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-i.165601508.9596244077?sp_atk=96f288f8-9941-4108-8809-8a84fbac7740&amp;xptdk=96f288f8-9941-4108-8809-8a84fbac7740</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/c5b880d1f22ec239e9695d361c406af1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/bbb490f29226494bfa906bf9939d238f_tn</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท ทาตา 4.8g OD276 odbo Signature Eyeshadow Palette</v>
+        <v>-83%</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>YOTAI ❤️LAMEILA❤️ บลัชออน บลัชออนโทนส้ม บรัชออนทาแก้ม ชมพูพีช ส้มพีช เนื้อดี สีสวย ติดทน</v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>฿69</v>
       </c>
       <c r="G19" t="str">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>ขายแล้ว 55.2พัน ชิ้น</v>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J19" t="str">
-        <v>ขายแล้ว 28.1พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K19" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L19" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/%E0%B9%82%E0%B8%89%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%84%E0%B9%88%E0%B8%B2-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2-Lerca-hair-color-%E0%B9%81%E0%B8%A7%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%9A%E0%B8%88-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%95%E0%B8%B2%E0%B8%A5-%E0%B8%8A%E0%B8%B2%E0%B8%99%E0%B8%A1-%E0%B9%81%E0%B8%94%E0%B8%87-i.83236355.3333058389?sp_atk=e98ce524-1051-4882-9b1b-474affbf4c4b&amp;xptdk=e98ce524-1051-4882-9b1b-474affbf4c4b</v>
+        <v>https://shopee.co.th/-%F0%9F%94%A5Flash-sale-%E2%9C%85%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%E2%9C%85-%E0%B8%AA%E0%B8%9A%E0%B8%B9%E0%B9%88%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B9%80%E0%B8%AE%E0%B8%87-%E0%B8%81%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%8118%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-100-%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A9%E0%B8%B1%E0%B8%97%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B8%95%E0%B8%A3%E0%B8%87-i.36289700.15551054666?sp_atk=972c2386-8762-40fe-a0a0-24c6917f18c8&amp;xptdk=972c2386-8762-40fe-a0a0-24c6917f18c8</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lp7ffhla21d566_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e95d2e1276792bf52e716d50557a0500_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>-21%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D20" t="str">
-        <v>โฉมใหม่ เลอค่า ทรีทเม้น เปลี่ยนสีผม ผมไม่เสีย Lerca hair color - แว็ก สีผม สีเทา หม่น เบจ น้ำตาล ชานม แดง</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>ซื้อ 3 ชิ้น ลด ฿10</v>
+        <v>{🔥Flash sale} ✅ส่งไว✅ สบู่มาดามเฮง ก้อนเล็ก18รุ่น พร้อมส่ง ของแท้ 100% รับจากบริษัทโดยตรง</v>
       </c>
       <c r="F20" t="str">
-        <v>฿95</v>
+        <v>-</v>
       </c>
       <c r="G20" t="str">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>ขายแล้ว 49.6พัน ชิ้น</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J20" t="str">
-        <v>ขายแล้ว 23.3พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="K20" t="str">
-        <v>จังหวัดเพชรบูรณ์</v>
+        <v>฿</v>
       </c>
       <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%AD%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B1%E0%B8%9A1%F0%9F%94%A5%E2%99%A5%EF%B8%8F%E2%99%A5%EF%B8%8F-%F0%9F%92%AF-%E0%B9%81%E0%B8%97%E0%B9%89-%E2%9C%85%E2%9C%85%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%F0%9F%94%A5%F0%9F%94%A5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%F0%9F%94%A5%F0%9F%94%A5-2ml.%E0%B8%88%E0%B9%89%E0%B8%B2%E0%B8%B2-i.67776394.9110458732?sp_atk=eeb6e037-97b6-4d2a-b5e0-48377d93829a&amp;xptdk=eeb6e037-97b6-4d2a-b5e0-48377d93829a</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-42-Colors-Nail-gel-polish-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-UV-LED%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-(%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A)-i.795198852.18345143038?sp_atk=08d8f6eb-8b91-4d68-b9e1-9218813f897f&amp;xptdk=08d8f6eb-8b91-4d68-b9e1-9218813f897f</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/0e81548a7ac5b6d3f1c52e3db5b18cb0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0a78af71d3fbd59861fec0ca374d4414_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>-97%</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>🔥 ขายดีอันดับ1🔥♥️♥️[💯% แท้]✅✅น้ำหอม 🔥🔥 ขนาดพกพา🔥🔥 2ml.จ้าา</v>
+        <v>-45%</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>สีเจล เจลทาเล็บ สีเจลทาเล็บ 42 Colors Nail gel polish สีสวย UV/LEDสีเจล สีทาเล็บเจล แแบบต้องอบ (ต้องใช้เครื่องอบ)</v>
       </c>
       <c r="F21" t="str">
-        <v>฿12</v>
+        <v>-</v>
       </c>
       <c r="G21" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>ขายแล้ว 84พัน ชิ้น</v>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J21" t="str">
-        <v>ขายแล้ว 225.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v>จังหวัดจันทบุรี</v>
+        <v>฿</v>
       </c>
       <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="M21" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.252770425.16156963757?sp_atk=c2efc1ae-7aae-4ad8-9f14-b4a4966a3fef&amp;xptdk=c2efc1ae-7aae-4ad8-9f14-b4a4966a3fef</v>
+        <v>https://shopee.co.th/%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1-3-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-KOTA-COSMETICS-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AF-%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%81%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9C%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.59913582.23214646367?sp_atk=60d39eb8-4e8c-4a48-bfb4-aa9597a800c9&amp;xptdk=60d39eb8-4e8c-4a48-bfb4-aa9597a800c9</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/50b2515674b9fc5ae8622e3128e70270_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-ljo0tcz94409ae_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>-85%</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v>-5%</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>ยาย้อม 3 สีใหม่ สีผม KOTA COSMETICS สีย้อมผมออร์แกนิคแท้ 💯%นวัตกรรมใหม่ผลิตจากรากโสมธรรมชาติ</v>
       </c>
       <c r="F22" t="str">
         <v>-</v>
       </c>
       <c r="G22" t="str">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H22" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 13.7พัน ชิ้น</v>
       </c>
       <c r="I22" t="str">
-        <v>12</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J22" t="str">
-        <v>ขายแล้ว 105พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K22" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L22" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M22" t="str">
-        <v/>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8COD%E2%9C%A8PinkyFocus-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%83%E0%B8%AA-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-i.409094973.16280250890?sp_atk=43341d22-d38a-4cbb-8dcf-cb6972af634a&amp;xptdk=43341d22-d38a-4cbb-8dcf-cb6972af634a</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B1%E0%B9%89%E0%B8%87%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B8%B2%E0%B8%99-i.148820479.11863193356?sp_atk=2babc377-3504-47f3-a8c3-2c9b9eaade51&amp;xptdk=2babc377-3504-47f3-a8c3-2c9b9eaade51</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/4bd28cce7228c767eac648f598ca2069_tn</v>
+        <v>https://down-th.img.susercontent.com/file/930ae49d5c880db4461dee1b1286091e_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>-95%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D23" t="str">
-        <v>✨COD✨PinkyFocus ลิปโคลนกระจกใส ติดทนนาน ไม่ซีดจาง สําหรับผู้หญิง ติดทนนาน เคลือบริมฝีปาก</v>
+        <v>-88%</v>
       </c>
       <c r="E23" t="str">
-        <v>ซื้อ 2 ชิ้น ลด ฿5</v>
+        <v>ลิปโคลน ลิปสติก เนื้อแมตต์ ใช้ได้ทั้งปากและแก้ม ติดทนยาวนาน</v>
       </c>
       <c r="F23" t="str">
         <v>-</v>
@@ -1299,326 +1233,302 @@
         <v>9</v>
       </c>
       <c r="H23" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 286.4พัน ชิ้น</v>
       </c>
       <c r="I23" t="str">
-        <v>28</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J23" t="str">
-        <v>ขายแล้ว 17.3พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K23" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L23" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/%F0%9F%95%B8-%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-Tinyme-%E0%B9%84%E0%B8%97%E0%B8%99%E0%B8%B5%E0%B9%88%E0%B8%A1%E0%B8%B5-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.78549877.5729471397?sp_atk=397b1c29-f670-4378-9a36-e57d27f00cc0&amp;xptdk=397b1c29-f670-4378-9a36-e57d27f00cc0</v>
+        <v>https://shopee.co.th/kingshopping-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-(%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)%EF%BC%8838-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99)%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-2-ml.-A74-i.162894152.3171695322?sp_atk=1227f9db-0ac2-4bbe-8436-294151d92d08&amp;xptdk=1227f9db-0ac2-4bbe-8436-294151d92d08</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-ri0ktaqf4dmvd4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-lhdsxpz32n78ea_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>-99%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D24" t="str">
-        <v>🕸 [แพคเกจใหม่] Tinyme ไทนี่มี มูสกำจัดขนสกัดจากธรรมชาติ อ่อนโยนต่อผิว</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>kingshopping น้ำหอม มาดามฟิน (ร้านไทย)（38 กลิ่น คละกลิ่น)ขนาดพกพา 2 ml. A74</v>
       </c>
       <c r="F24" t="str">
-        <v>฿169</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>ขายแล้ว 659.4พัน ชิ้น</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J24" t="str">
-        <v>ขายแล้ว 129.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v/>
-      </c>
-      <c r="M24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-MizuMi-UV-Bright-Body-Serum-(180-ml)-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%81%E0%B8%94%E0%B8%94%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%A5%E0%B8%A0%E0%B8%B2%E0%B8%A7%E0%B8%B0-i.70802054.17665872094?sp_atk=807950a8-e762-48b0-a7b8-762f2b6b397a&amp;xptdk=807950a8-e762-48b0-a7b8-762f2b6b397a</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-3D-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2-i.171353391.3008041210?sp_atk=6b4cc713-ab15-4e4f-a38d-5dad7b42333f&amp;xptdk=6b4cc713-ab15-4e4f-a38d-5dad7b42333f</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-llpqt9tj2cjr5b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-ley3zl66k46h7f_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>-53%</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>[แพ็คคู่] MizuMi UV Bright Body Serum (180 ml) เซรั่มกันแดดทาผิวกาย เบาสบายผิว หอมละมุน ปกป้องผิวจากแดดและมลภาวะ</v>
+        <v>-90%</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>เล็บปลอม 3D สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น ฟรีสติกเกอร์กา</v>
       </c>
       <c r="F25" t="str">
-        <v>฿780</v>
+        <v>-</v>
       </c>
       <c r="G25" t="str">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>ขายแล้ว 203.9พัน ชิ้น</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J25" t="str">
-        <v>ขายแล้ว 46.2พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K25" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>฿</v>
       </c>
       <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <v/>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%88%E0%B8%A5-2-in-1-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AD%E0%B8%9A-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%A5%E0%B8%B8%E0%B8%84%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%84%E0%B8%A7-i.431682858.8385030445?sp_atk=c4c2e6ab-42ee-470c-9bda-7f064bab2c1f&amp;xptdk=c4c2e6ab-42ee-470c-9bda-7f064bab2c1f</v>
+        <v>https://shopee.co.th/%E0%B9%82%E0%B8%89%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%84%E0%B9%88%E0%B8%B2-%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B9%80%E0%B8%A1%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2-Lerca-hair-color-%E0%B9%81%E0%B8%A7%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%9A%E0%B8%88-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%95%E0%B8%B2%E0%B8%A5-%E0%B8%8A%E0%B8%B2%E0%B8%99%E0%B8%A1-%E0%B9%81%E0%B8%94%E0%B8%87-i.83236355.3333058389?sp_atk=eb139971-496a-486c-b735-3bc473ea2ed6&amp;xptdk=eb139971-496a-486c-b735-3bc473ea2ed6</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/0a565b9e99d1ebffc4973ac15861679b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lp7ffhla21d566_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>-75%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D26" t="str">
-        <v>🔥พร้อมส่ง🔥 สีทาเล็บกึ่งเจล 2 in 1 ยาทาเล็บ สีทาเล็บเจลไม่อบ ไม่ต้องอบ ลุคเจล แพคคู่ สีสวย แห้งไว</v>
+        <v>-21%</v>
       </c>
       <c r="E26" t="str">
-        <v/>
+        <v>โฉมใหม่ เลอค่า ทรีทเม้น เปลี่ยนสีผม ผมไม่เสีย Lerca hair color - แว็ก สีผม สีเทา หม่น เบจ น้ำตาล ชานม แดง</v>
       </c>
       <c r="F26" t="str">
-        <v>-</v>
+        <v>฿95</v>
       </c>
       <c r="G26" t="str">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H26" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 23.3พัน ชิ้น</v>
       </c>
       <c r="I26" t="str">
-        <v>29</v>
+        <v>จังหวัดเพชรบูรณ์</v>
       </c>
       <c r="J26" t="str">
-        <v>ขายแล้ว 40.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K26" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L26" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.273622042.12196701574?sp_atk=b8730fd8-b956-4b72-9c33-b48878966ed5&amp;xptdk=b8730fd8-b956-4b72-9c33-b48878966ed5</v>
+        <v>https://shopee.co.th/Magiccasa-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-6-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.228257194.21663743770?sp_atk=af878529-9536-413d-b2f5-25c2a54183da&amp;xptdk=af878529-9536-413d-b2f5-25c2a54183da</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/028f0258c555333e20127cd4a9395ce6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23010-ukx0g7sjzymv6e_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>-97%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D27" t="str">
-        <v>ลิปกลอส เนื้อแมตต์ กันน้ํา ติดทนนาน</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v/>
+        <v>Magiccasa ชุดลิปสติก เคลือบริมฝีปาก 6 ชิ้น</v>
       </c>
       <c r="F27" t="str">
         <v>-</v>
       </c>
       <c r="G27" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H27" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 73.7พัน ชิ้น</v>
       </c>
       <c r="I27" t="str">
-        <v>10</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J27" t="str">
-        <v>ขายแล้ว 195.3พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K27" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L27" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-pH-Balance-5.5-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-Tea-Tree-Facial-Cleanser-300ml-i.223832803.3716295861?sp_atk=c00b3821-32e6-497c-963b-e62b17dbf9cc&amp;xptdk=c00b3821-32e6-497c-963b-e62b17dbf9cc</v>
+        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8F-DAYSE-x-COSLUXE-Lash-Adhesive-White-Waterproof-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A5%E0%B8%B8%E0%B8%84-%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.11210871.886718034?sp_atk=1b15f31f-b068-4458-b27d-e965be9e1f88&amp;xptdk=1b15f31f-b068-4458-b27d-e965be9e1f88</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/82d41d3050c4b4ef8e831c678a527402_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnb-lq1gna9kinmu60_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>-99%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D28" t="str">
-        <v>Naturista เจลล้างหน้าทีทรี pH Balance 5.5 สูตรอ่อนโยน สำหรับคนเป็นสิว และผิวแพ้ง่าย Tea Tree Facial Cleanser 300ml</v>
+        <v>-19%</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>♦️ของแท้·ส่งด่วน·ถูก♦️ DAYSE x COSLUXE: Lash Adhesive White Waterproof : คอสลุค กาว กาวติดขนตาปลอม กาวติดขนตา</v>
       </c>
       <c r="F28" t="str">
-        <v>฿750</v>
+        <v>-</v>
       </c>
       <c r="G28" t="str">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>ขายแล้ว 57พัน ชิ้น</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J28" t="str">
-        <v>ขายแล้ว 513.9พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K28" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/%F0%9F%8C%B8(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-COSMIC-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%84-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%81-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%9E%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7-100-ml.-i.78549877.6442547811?sp_atk=8fb1395c-ace4-48fd-925b-1424e9ccbe11&amp;xptdk=8fb1395c-ace4-48fd-925b-1424e9ccbe11</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.252770425.16156963757?sp_atk=8184ee7a-c57c-49cb-9c1b-3fadff1175fc&amp;xptdk=8184ee7a-c57c-49cb-9c1b-3fadff1175fc</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-c0sbznoujdovc6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/50b2515674b9fc5ae8622e3128e70270_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>-98%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D29" t="str">
-        <v>🌸(แพคเกจใหม่) COSMIC คอสมิค คอสมิก มูสเทพกำจัดขน กำจัดขนรักแร้ กำจัดขนน้องสาว 100 ml.</v>
+        <v>-85%</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="F29" t="str">
-        <v>฿189</v>
+        <v>-</v>
       </c>
       <c r="G29" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="str">
-        <v/>
+        <v>ขายแล้ว 105พัน ชิ้น</v>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J29" t="str">
-        <v>ขายแล้ว 52.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>฿</v>
       </c>
       <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/-9.9%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-R416-R540-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%A5%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%97%E0%B8%B3%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.252770425.21012949611?sp_atk=8f077bcb-85e2-493c-94d1-5fd0236cc8c1&amp;xptdk=8f077bcb-85e2-493c-94d1-5fd0236cc8c1</v>
+        <v>https://shopee.co.th/%E2%9C%A8Bubble-Bath-%F0%9F%9B%81-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-100-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%F0%9F%8F%B7%EF%B8%8F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B02%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AA%E0%B8%9A%E0%B8%95%E0%B8%B2%E2%AD%90%EF%B8%8F%E0%B9%80%E0%B8%A3%E0%B8%97-Wholesale%F0%9F%8C%9F-i.448358305.18460517123?sp_atk=da792321-e7f2-4720-aecb-e005b2045dde&amp;xptdk=da792321-e7f2-4720-aecb-e005b2045dde</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/b333ac4c492526acd3964c2b1bb7c12b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7quky-lg96jihhludrfb_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>-53%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D30" t="str">
-        <v>[9.9เก็บโค้ดส่งฟรีหน้าร้าน]เล็บปลอม [R416-R540]เล็บปลอมกันน้ำ เล็บปลอมทาสีแล้ว เล็บเจล เล็บปลอมสำเร็จรูป อุปกรณ์ทำเล็บ</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>✨Bubble Bath 🛁 ไซส์ใหญ่ 100 กรัม  🏷️ฟองเยอะ2เท่า  หอมผ่อนคลาย ไม่แสบตา⭐️เรท Wholesale🌟</v>
       </c>
       <c r="F30" t="str">
         <v>-</v>
       </c>
       <c r="G30" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H30" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 31พัน ชิ้น</v>
       </c>
       <c r="I30" t="str">
-        <v>49</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J30" t="str">
-        <v>ขายแล้ว 18.5พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K30" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L30" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M30" t="str">
-        <v/>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/Laka-Fruity-Glam-Tint-Official-Store--i.298113044.10998067233?sp_atk=0c4f198e-6418-432e-861a-3fdb823b7816&amp;xptdk=0c4f198e-6418-432e-861a-3fdb823b7816</v>
+        <v>https://shopee.co.th/Laka-Fruity-Glam-Tint-Official-Store--i.298113044.10998067233?sp_atk=a4a24b4c-2d39-4aae-af27-0a29ad7428d7&amp;xptdk=a4a24b4c-2d39-4aae-af27-0a29ad7428d7</v>
       </c>
       <c r="B31" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li2jj36btx5f9b_tn</v>
       </c>
       <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
         <v>-28%</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <v>Laka : Fruity Glam Tint [Official Store]</v>
-      </c>
-      <c r="E31" t="str">
-        <v/>
       </c>
       <c r="F31" t="str">
         <v>฿570</v>
@@ -1627,232 +1537,214 @@
         <v>410</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>ขายแล้ว 36.3พัน ชิ้น</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J31" t="str">
-        <v>ขายแล้ว 36.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K31" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L31" t="str">
-        <v/>
-      </c>
-      <c r="M31" t="str">
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%99-%E0%B9%81%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9F%E0%B9%8C%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%9F%E0%B9%80%E0%B8%8A%E0%B8%B5%E0%B8%A2%E0%B8%A5-%E0%B8%A7%E0%B8%AD%E0%B8%8A-150%E0%B8%A1%E0%B8%A5.-x-2-Clean-Clear-Essentials-Self-Foaming-Facial-Wash-150ml.-x-2-i.63669256.1937293691?sp_atk=653f6aef-b291-40e7-8d44-8408a82a2441&amp;xptdk=653f6aef-b291-40e7-8d44-8408a82a2441</v>
+        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-pH-Balance-5.5-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-Tea-Tree-Facial-Cleanser-300ml-i.223832803.3716295861?sp_atk=e3f8de88-85bb-48e4-a184-1daf82a45331&amp;xptdk=e3f8de88-85bb-48e4-a184-1daf82a45331</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7r98s-lq5343eewdes10_tn</v>
+        <v>https://down-th.img.susercontent.com/file/82d41d3050c4b4ef8e831c678a527402_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>-6%</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>[แพ็คคู่] คลีน แอนด์ เคลียร์ โฟมล้างหน้า เซลฟ์โฟมมิ่ง เฟเชียล วอช 150มล. x 2 Clean &amp; Clear Essentials Self Foaming Facial Wash 150ml. x 2</v>
+        <v>-99%</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>Naturista เจลล้างหน้าทีทรี pH Balance 5.5 สูตรอ่อนโยน สำหรับคนเป็นสิว และผิวแพ้ง่าย Tea Tree Facial Cleanser 300ml</v>
       </c>
       <c r="F32" t="str">
-        <v>฿310</v>
+        <v>฿750</v>
       </c>
       <c r="G32" t="str">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="H32" t="str">
-        <v/>
+        <v>ขายแล้ว 514พัน ชิ้น</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J32" t="str">
-        <v>ขายแล้ว 49.2พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K32" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L32" t="str">
         <v/>
-      </c>
-      <c r="M32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/Tester-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94-%E0%B8%9E%E0%B9%88%E0%B8%AD%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B9%89!!-Old-Spice-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%9B%E0%B8%B2%E0%B8%94%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%9A%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B8%95%E0%B8%A3%E0%B8%88%E0%B8%A1%E0%B8%B9%E0%B8%81-(Sample-Test)-i.14998341.18761047160?sp_atk=e19cca72-164a-485f-b226-0465830c70d5&amp;xptdk=e19cca72-164a-485f-b226-0465830c70d5</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9F%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%AA%E0%B8%B5-i.171353391.18461182582?sp_atk=cbe30ef5-995d-49aa-8ac0-a42bdadf2856&amp;xptdk=cbe30ef5-995d-49aa-8ac0-a42bdadf2856</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-2gt9s2vcg0lvc2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lgbwadro0fpa4f_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>-64%</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>Tester แบบใหม่ กลิ่นชัด พ่อค้าจัดให้!! Old Spice ตัวปาดกลิ่น เบิกเนตรจมูก (Sample Test)</v>
+        <v>-75%</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>สติกเกอร์ฟอยล์ ลายการ์ตูนดวงจันทร์ และดาว 3 มิติ กันน้ํา สําหรับตกแต่งเล็บ DIY จํานวน 1 ชิ้น สุ่มสี</v>
       </c>
       <c r="F33" t="str">
-        <v>฿25</v>
+        <v>-</v>
       </c>
       <c r="G33" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H33" t="str">
-        <v/>
+        <v>ขายแล้ว 17.4พัน ชิ้น</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J33" t="str">
-        <v>ขายแล้ว 14.9พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K33" t="str">
-        <v>จังหวัดสิงห์บุรี</v>
+        <v>฿</v>
       </c>
       <c r="L33" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.17532392505?sp_atk=54f4a33b-06b3-41d9-ba06-69c9e90b06f9&amp;xptdk=54f4a33b-06b3-41d9-ba06-69c9e90b06f9</v>
+        <v>https://shopee.co.th/-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%8B%E0%B8%AD%E0%B8%87-Numju-%E0%B8%99%E0%B8%B1%E0%B8%A1%E0%B8%88%E0%B8%B9%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-25-g.-i.78549877.18334997438?sp_atk=da2e5806-b35d-41d8-b7e9-b79888711fb8&amp;xptdk=da2e5806-b35d-41d8-b7e9-b79888711fb8</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/e71ae020df97e8e723bacdac6e1b8fd5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4e7976bd1e83d86a155a1ce55738841b_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>-63%</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>เล็บปลอม ทรงกลมสั้น ไม่มีกาว 24 ชิ้น</v>
+        <v>-99%</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>[แบบซอง] Numju นัมจูซองหัวเชื้อ วิตามินนำเข้าจากเกาหลี 25 g.</v>
       </c>
       <c r="F34" t="str">
-        <v>-</v>
+        <v>฿99</v>
       </c>
       <c r="G34" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 87.7พัน ชิ้น</v>
       </c>
       <c r="I34" t="str">
-        <v>4</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J34" t="str">
-        <v>ขายแล้ว 37.9พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="K34" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%82%E0%B8%84%E0%B8%A5%E0%B8%99-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B1%E0%B9%89%E0%B8%87%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B8%B2%E0%B8%99-i.148820479.11863193356?sp_atk=1cdfa1ed-cf3f-4735-8988-64111621c4f1&amp;xptdk=1cdfa1ed-cf3f-4735-8988-64111621c4f1</v>
+        <v>https://shopee.co.th/BEIKOTT-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%A5%E0%B8%B8%E0%B8%94%E0%B8%A3%E0%B9%88%E0%B8%A7%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-i.606860656.12676324720?sp_atk=791761d4-9f3d-4b34-9cdf-7a41962a5f47&amp;xptdk=791761d4-9f3d-4b34-9cdf-7a41962a5f47</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/930ae49d5c880db4461dee1b1286091e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lnqk6cb7y5bb06_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>-88%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D35" t="str">
-        <v>ลิปโคลน ลิปสติก เนื้อแมตต์ ใช้ได้ทั้งปากและแก้ม ติดทนยาวนาน</v>
+        <v>-97%</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>BEIKOTT มาสคาร่า มาสคาร่าขนาดเล็ก กันน้ำ ติดทนนาน ไม่หลุดร่วงง่าย หัวแปรงยาว และบางเป็นธรรมชาติ นุ่ม ผู้ขายชาวไทย</v>
       </c>
       <c r="F35" t="str">
         <v>-</v>
       </c>
       <c r="G35" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H35" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 142.7พัน ชิ้น</v>
       </c>
       <c r="I35" t="str">
-        <v>15</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J35" t="str">
-        <v>ขายแล้ว 286.4พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="K35" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L35" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/%F0%9F%8D%8AVC-VIt-C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8B%E0%B8%B5%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8B%E0%B8%B5%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%B9%E0%B9%88%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%89%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-7-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-10-%E0%B8%8B%E0%B8%AD%E0%B8%87-i.78549877.13676673899?sp_atk=7d092dd0-8c94-4c54-9751-5601c8916e14&amp;xptdk=7d092dd0-8c94-4c54-9751-5601c8916e14</v>
+        <v>https://shopee.co.th/-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%9A%E0%B8%A3%E0%B8%A3%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C-10-%E0%B8%A1%E0%B8%A5.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-EP1-i.19480788.5835502184?sp_atk=09639c3d-eb18-47be-99cf-af692a2fb5a4&amp;xptdk=09639c3d-eb18-47be-99cf-af692a2fb5a4</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-hp3dz1h95dmv3d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/44303952f3920f1380f7febf0f96b0b2_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>-99%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D36" t="str">
-        <v>🍊VC VIt C ครีมวิตซีน้องฉัตร วิตซีซองคู่น้องฉัตร มาร์คน้องฉัตร ขนาด 7 กรัม ยกกล่อง 10 ซอง</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>"พร้อมส่งทุกกลิ่น"  น้ำหอมพร้อมใช้ บรรจุขวดสเปรย์ 10 มล. กลิ่นขายดี #EP1</v>
       </c>
       <c r="F36" t="str">
-        <v>฿45</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H36" t="str">
-        <v/>
+        <v>ขายแล้ว 101.8พัน ชิ้น</v>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J36" t="str">
-        <v>ขายแล้ว 281.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K36" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v/>
       </c>
       <c r="L36" t="str">
         <v/>
-      </c>
-      <c r="M36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88!-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!-%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-Softcare-Plus-(Lot-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94)-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-i.260110205.7594191922?sp_atk=bec18f92-f98d-4471-9be2-b74ea83c4106&amp;xptdk=bec18f92-f98d-4471-9be2-b74ea83c4106</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.606028529.19905161784?sp_atk=65c3140b-69dd-4130-8963-980ffd0e70fd&amp;xptdk=65c3140b-69dd-4130-8963-980ffd0e70fd</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -1861,256 +1753,238 @@
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>ของใหม่! พร้อมส่ง! ศิริราชซอฟท์แคร์ พลัส ขนาด 30 กรัม Softcare Plus (Lot ใหม่ล่าสุด) ซอฟท์แคร์</v>
+        <v>-50%</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="F37" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="G37" t="str">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>ขายแล้ว 8.9พัน ชิ้น</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J37" t="str">
-        <v>ขายแล้ว 17.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-AS-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%AD%E0%B8%9AUV-LED-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%9A%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%B5-15ml-(1-30)-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-i.729806318.17533745666?sp_atk=e19ac40a-7e5d-4bba-990e-8202cd2b799a&amp;xptdk=e19ac40a-7e5d-4bba-990e-8202cd2b799a</v>
+        <v>https://shopee.co.th/Onny-%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%9E%E0%B8%97-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A7-5%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.154778270.18026747508?sp_atk=562f4801-5ae3-4833-81df-4f60bddb4b59&amp;xptdk=562f4801-5ae3-4833-81df-4f60bddb4b59</v>
       </c>
       <c r="B38" t="str">
         <v/>
       </c>
       <c r="C38" t="str">
-        <v>-40%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D38" t="str">
-        <v>สีทาเล็บเจล AS รุ่นขวดเหลี่ยม สีเจลชนิดอบUV/LED ขวดบอกสี 15ml (1-30) ยาทาเล็บเจล</v>
+        <v>-71%</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>Onny  รักแร้แม่แพท ครีมทารักแร้ขาว 5กรัม</v>
       </c>
       <c r="F38" t="str">
-        <v>฿95</v>
+        <v>฿59</v>
       </c>
       <c r="G38" t="str">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H38" t="str">
-        <v/>
+        <v>ขายแล้ว 212.9พัน ชิ้น</v>
       </c>
       <c r="I38" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J38" t="str">
-        <v>ขายแล้ว 28.5พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="K38" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L38" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/CRYSTAL-RABBIT-%E0%B9%81%E0%B8%A1%E0%B8%97-2-%E0%B8%AD%E0%B8%B4%E0%B8%99-1-%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%8B%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B9%84%E0%B8%A3%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-i.445551086.19829121850?sp_atk=560a7da2-7216-443e-a07d-2e36126aa7c9&amp;xptdk=560a7da2-7216-443e-a07d-2e36126aa7c9</v>
+        <v>https://shopee.co.th/Beikott-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eyeshadow-7%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%95%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-i.606860656.18361242759?sp_atk=cfff70b4-38ec-4d99-80e8-b4ff908f7718&amp;xptdk=cfff70b4-38ec-4d99-80e8-b4ff908f7718</v>
       </c>
       <c r="B39" t="str">
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>-83%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D39" t="str">
-        <v>CRYSTAL RABBIT แมท 2 อิน 1 สองชั้น แป้งอัดแข็ง คอนซีลเลอร์ มอยซ์เจอไรเซอร์ ไม่แต่งหน้า เปียกและแห้ง</v>
+        <v>-68%</v>
       </c>
       <c r="E39" t="str">
-        <v>ซื้อ 2 ชิ้น ลด 2%</v>
+        <v>Beikott อายแชโดว์ อายแชโดว์พาเลท พาเลตอายแชโดว์กันน้ำ เนื้อใยไหม ประกายชิมเมอร์ Eyeshadow 7สี เตรียมจัดส่งสินค้า</v>
       </c>
       <c r="F39" t="str">
         <v>-</v>
       </c>
       <c r="G39" t="str">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H39" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 31พัน ชิ้น</v>
       </c>
       <c r="I39" t="str">
-        <v>40</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J39" t="str">
-        <v>ขายแล้ว 25.5พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K39" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L39" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M39" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/HIH-(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-1%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-20%E0%B8%8B%E0%B8%AD%E0%B8%87-HIH-%E0%B8%AA%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%87%E0%B8%99%E0%B8%81%E0%B8%97%E0%B8%B0%E0%B9%80%E0%B8%A5%E0%B8%84%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B2%E0%B9%80%E0%B8%88%E0%B8%99-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B9%83%E0%B8%AA%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-i.25539018.23607774735?sp_atk=8162e0c5-18ce-4a02-b595-1493313d2850&amp;xptdk=8162e0c5-18ce-4a02-b595-1493313d2850</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%AD%E0%B8%B1%E0%B8%99%E0%B8%94%E0%B8%B1%E0%B8%9A1%F0%9F%94%A5%E2%99%A5%EF%B8%8F%E2%99%A5%EF%B8%8F-%F0%9F%92%AF-%E0%B9%81%E0%B8%97%E0%B9%89-%E2%9C%85%E2%9C%85%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%F0%9F%94%A5%F0%9F%94%A5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%F0%9F%94%A5%F0%9F%94%A5-2ml.%E0%B8%88%E0%B9%89%E0%B8%B2%E0%B8%B2-i.67776394.9110458732?sp_atk=87a6838a-721b-4c5e-8726-90cbdaa53279&amp;xptdk=87a6838a-721b-4c5e-8726-90cbdaa53279</v>
       </c>
       <c r="B40" t="str">
         <v/>
       </c>
       <c r="C40" t="str">
-        <v>-17%</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>HIH (ใหม่/แท้) 1กล่อง/20ซอง  HIH สลิปปิ้งมาส์กรังนกทะเลคอลลาเจน บำรุงผิวให้ฉ่ำใสชุ่มชื้น ยกกระชับ</v>
+        <v>-97%</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>🔥 ขายดีอันดับ1🔥♥️♥️[💯% แท้]✅✅น้ำหอม 🔥🔥 ขนาดพกพา🔥🔥 2ml.จ้าา</v>
       </c>
       <c r="F40" t="str">
-        <v>-</v>
+        <v>฿12</v>
       </c>
       <c r="G40" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H40" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 225.3พัน ชิ้น</v>
       </c>
       <c r="I40" t="str">
-        <v>24</v>
+        <v>จังหวัดจันทบุรี</v>
       </c>
       <c r="J40" t="str">
-        <v>ขายแล้ว 32.6พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K40" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L40" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-9-%E0%B8%AA%E0%B8%B5)-%F0%9F%8E%A8KOTA-Color-Cream-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B5-9-%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5-100-ml.-i.78549877.18365751175?sp_atk=62bc92de-52c5-4144-9651-080bc4925ce4&amp;xptdk=62bc92de-52c5-4144-9651-080bc4925ce4</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-AS-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%AD%E0%B8%9AUV-LED-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%9A%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%B5-15ml-(1-30)-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-i.729806318.17533745666?sp_atk=85b95343-07bc-4dd1-a6e4-deb52fff5207&amp;xptdk=85b95343-07bc-4dd1-a6e4-deb52fff5207</v>
       </c>
       <c r="B41" t="str">
         <v/>
       </c>
       <c r="C41" t="str">
-        <v>-99%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D41" t="str">
-        <v>(พร้อมส่ง 9 สี) 🎨KOTA Color Cream สีย้อมผมออแกนิค ยาย้อมผม มี 9 เฉดสี 100 ml.</v>
+        <v>-40%</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>สีทาเล็บเจล AS รุ่นขวดเหลี่ยม สีเจลชนิดอบUV/LED ขวดบอกสี 15ml (1-30) ยาทาเล็บเจล</v>
       </c>
       <c r="F41" t="str">
-        <v>-</v>
+        <v>฿95</v>
       </c>
       <c r="G41" t="str">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H41" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 28.5พัน ชิ้น</v>
       </c>
       <c r="I41" t="str">
-        <v>99</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J41" t="str">
-        <v>ขายแล้ว 53.1พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K41" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v/>
       </c>
       <c r="L41" t="str">
         <v/>
-      </c>
-      <c r="M41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.606028529.19905161784?sp_atk=5609d887-5128-444e-8cd2-07e8c82977c1&amp;xptdk=5609d887-5128-444e-8cd2-07e8c82977c1</v>
+        <v>https://shopee.co.th/HIH-(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-1%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-20%E0%B8%8B%E0%B8%AD%E0%B8%87-HIH-%E0%B8%AA%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%87%E0%B8%99%E0%B8%81%E0%B8%97%E0%B8%B0%E0%B9%80%E0%B8%A5%E0%B8%84%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B2%E0%B9%80%E0%B8%88%E0%B8%99-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B9%83%E0%B8%AA%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%A2%E0%B8%81%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-i.25539018.23607774735?sp_atk=872857ae-51a9-4aba-94f8-47186b7afc38&amp;xptdk=872857ae-51a9-4aba-94f8-47186b7afc38</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/1de5b19b61b583fcec93e8f0cfc942ca_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-tr81ss3f2ckvd0_tn</v>
       </c>
       <c r="C42" t="str">
-        <v>-50%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D42" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v>-17%</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>HIH (ใหม่/แท้) 1กล่อง/20ซอง  HIH สลิปปิ้งมาส์กรังนกทะเลคอลลาเจน บำรุงผิวให้ฉ่ำใสชุ่มชื้น ยกกระชับ</v>
       </c>
       <c r="F42" t="str">
         <v>-</v>
       </c>
       <c r="G42" t="str">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H42" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 32.6พัน ชิ้น</v>
       </c>
       <c r="I42" t="str">
-        <v>12</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J42" t="str">
-        <v>ขายแล้ว 8.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L42" t="str">
-        <v/>
-      </c>
-      <c r="M42" t="str">
-        <v/>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/PINKFLASH-OhMyPinkFlash-OhMyBreath-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.320847166.3768563359?sp_atk=a263faf8-815f-4e51-987d-33bab0010a38&amp;xptdk=a263faf8-815f-4e51-987d-33bab0010a38</v>
+        <v>https://shopee.co.th/PINKFLASH-OhMyPinkFlash-OhMyBreath-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.320847166.3768563359?sp_atk=03458362-4633-43da-9d60-59130fee4969&amp;xptdk=03458362-4633-43da-9d60-59130fee4969</v>
       </c>
       <c r="B43" t="str">
         <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lo4ufymdtayvaa_tn</v>
       </c>
       <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
         <v>-86%</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <v>PINKFLASH OhMyPinkFlash OhMyBreath คอนซีลเลอร์ ชนิดเหลว เนื้อแมตต์ ปกปิดแบบเรียบเนียน ติดทนนาน</v>
-      </c>
-      <c r="E43" t="str">
-        <v/>
       </c>
       <c r="F43" t="str">
         <v>-</v>
@@ -2119,760 +1993,703 @@
         <v>21</v>
       </c>
       <c r="H43" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 93.9พัน ชิ้น</v>
       </c>
       <c r="I43" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="J43" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+      </c>
+      <c r="K43" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L43" t="str">
         <v>30</v>
-      </c>
-      <c r="J43" t="str">
-        <v>ขายแล้ว 93.9พัน ชิ้น</v>
-      </c>
-      <c r="K43" t="str">
-        <v>ต่างประเทศ</v>
-      </c>
-      <c r="L43" t="str">
-        <v/>
-      </c>
-      <c r="M43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E2%9C%A8BANOBAGI-Final-Sleeping-Mask-Whitening-Plus-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C-4-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88!!-i.83719543.23905027014?sp_atk=0b3de210-f6d4-484e-90cf-f950c7b987e8&amp;xptdk=0b3de210-f6d4-484e-90cf-f950c7b987e8</v>
+        <v>https://shopee.co.th/%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88!-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!-%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-Softcare-Plus-(Lot-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94)-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-i.260110205.7594191922?sp_atk=69816ba3-3643-4673-973b-bf704072249a&amp;xptdk=69816ba3-3643-4673-973b-bf704072249a</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-lhh4egxcxg9v47_tn</v>
+        <v>https://down-th.img.susercontent.com/file/129cde1d82fd7b61f15eaabadb37e707_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>-42%</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>✨ใหม่✨BANOBAGI Final Sleeping Mask - Whitening Plus สลีปปิ้งมาสก์ 4 สูตรใหม่!!</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>ของใหม่! พร้อมส่ง! ศิริราชซอฟท์แคร์ พลัส ขนาด 30 กรัม Softcare Plus (Lot ใหม่ล่าสุด) ซอฟท์แคร์</v>
       </c>
       <c r="F44" t="str">
-        <v>฿88</v>
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>ขายแล้ว 17.3พัน ชิ้น</v>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J44" t="str">
-        <v>ขายแล้ว 78.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K44" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L44" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/kingshopping-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-(%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)%EF%BC%8838-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99)%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-2-ml.-A74-i.162894152.3171695322?sp_atk=100af558-8ba2-46ad-922d-d4f2221414b8&amp;xptdk=100af558-8ba2-46ad-922d-d4f2221414b8</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%88%E0%B8%A5-2-in-1-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AD%E0%B8%9A-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%A5%E0%B8%B8%E0%B8%84%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%84%E0%B8%A7-i.431682858.8385030445?sp_atk=07a7a2ca-8c16-4b41-8137-4d38d63d63d5&amp;xptdk=07a7a2ca-8c16-4b41-8137-4d38d63d63d5</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-lhdsxpz32n78ea_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0a565b9e99d1ebffc4973ac15861679b_tn</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D45" t="str">
-        <v>kingshopping น้ำหอม มาดามฟิน (ร้านไทย)（38 กลิ่น คละกลิ่น)ขนาดพกพา 2 ml. A74</v>
+        <v>-75%</v>
       </c>
       <c r="E45" t="str">
-        <v>ซื้อ 5 ชิ้น ลด 1%</v>
+        <v>🔥พร้อมส่ง🔥 สีทาเล็บกึ่งเจล 2 in 1 ยาทาเล็บ สีทาเล็บเจลไม่อบ ไม่ต้องอบ ลุคเจล แพคคู่ สีสวย แห้งไว</v>
       </c>
       <c r="F45" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="G45" t="str">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>ขายแล้ว 40.6พัน ชิ้น</v>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J45" t="str">
-        <v>ขายแล้ว 659.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K45" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L45" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M45" t="str">
-        <v/>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E2%80%8B-i.896077.773882840?sp_atk=67d2fddc-b1a6-43c7-ac0d-71ed8dd4cb36&amp;xptdk=67d2fddc-b1a6-43c7-ac0d-71ed8dd4cb36</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B9%82%E0%B8%8B%E0%B8%A5-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%8B%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A3%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%8B%E0%B8%A5-serum-seoul-%E0%B8%A3%E0%B8%B1%E0%B8%9B%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%97%E0%B9%89%E0%B8%A2%E0%B8%B4%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B8%84%E0%B8%B7%E0%B8%99%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-seoul-original-*7%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%A5%E0%B8%87*-i.208864798.4163747835?sp_atk=346fb3bf-c4cf-4d9d-a5ad-bf108b2bd433&amp;xptdk=346fb3bf-c4cf-4d9d-a5ad-bf108b2bd433</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/5918fdcfcf9629bf43fc24e73c5c22e2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-077a4ii56ymv5d_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>-59%</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>ออยล์บำรุงเล็บแบบปากกา น้ำมันบำรุงเล็บ น้ำมันบำรุงขอบเล็บ​</v>
+        <v>-40%</v>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>แท้💯เซรั่มโซล ครีมมอยซ์เจอร์ไรเซอร์โซล serum seoul [รัปกันของแท้ ไม่แท้ยินดีคืนเงิน] seoul original *7ชิ้นขึ้นถูกลง*</v>
       </c>
       <c r="F46" t="str">
-        <v>฿29</v>
+        <v>-</v>
       </c>
       <c r="G46" t="str">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>ขายแล้ว 123.5พัน ชิ้น</v>
       </c>
       <c r="I46" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J46" t="str">
-        <v>ขายแล้ว 69.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K46" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L46" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/YOTAI-%E2%9D%A4%EF%B8%8FLAMEILA%E2%9D%A4%EF%B8%8F-%E0%B8%9A%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%87%E0%B8%87-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%B2%E0%B8%9330ML-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%94%E0%B8%B5%E0%B9%80%E0%B8%A2%E0%B8%B5%E0%B9%88%E0%B8%A2-i.165601508.12369757727?sp_atk=977b8b2b-5f90-4913-b354-beff0bfc70d1&amp;xptdk=977b8b2b-5f90-4913-b354-beff0bfc70d1</v>
+        <v>https://shopee.co.th/Carbon-Store-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-24-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.569324763.18034682549?sp_atk=520f8016-b612-4fe9-8183-a46f191cd505&amp;xptdk=520f8016-b612-4fe9-8183-a46f191cd505</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/0df899fd982953a40a85f5b1b8631804_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-nfem16hhcvkvc5_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>-81%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D47" t="str">
-        <v>YOTAI ❤️LAMEILA❤️ บีบีครีมรองพื้นกันน้ำสุดพลังง ปริมาณ30ML กันแดดกันน้ำกันเหงื่อ ปกปิดดีเยี่ย</v>
+        <v>-80%</v>
       </c>
       <c r="E47" t="str">
-        <v>ซื้อ 6 ชิ้น ลด 2%</v>
+        <v>Carbon Store อายไลเนอร์ ปากกาเขียนขอบตา กันน้ำ ติดทนนาน 24 ชั่วโมง</v>
       </c>
       <c r="F47" t="str">
-        <v>฿99</v>
+        <v>฿5</v>
       </c>
       <c r="G47" t="str">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>ขายแล้ว 37.9พัน ชิ้น</v>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J47" t="str">
-        <v>ขายแล้ว 97.5พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K47" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L47" t="str">
-        <v/>
-      </c>
-      <c r="M47" t="str">
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%84%E0%B8%9D%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A2%E0%B8%B2%E0%B8%A2-%E0%B8%82%E0%B8%B5%E0%B9%89%E0%B9%81%E0%B8%A1%E0%B8%A5%E0%B8%87%E0%B8%A7%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%AB%E0%B8%B9%E0%B8%94-%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%B2-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0-%E0%B8%AA%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%B4%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B9%84%E0%B8%9D%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A2%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%9D-%E0%B8%AB%E0%B8%B9%E0%B8%94-%E0%B8%88%E0%B8%B5%E0%B9%89%E0%B9%84%E0%B8%9D-%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B9%84%E0%B8%9D-i.791978572.17974373238?sp_atk=3fa71128-9b32-427d-961d-edd96cb147f5&amp;xptdk=3fa71128-9b32-427d-961d-edd96cb147f5</v>
+        <v>https://shopee.co.th/(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-9-%E0%B8%AA%E0%B8%B5)-%F0%9F%8E%A8KOTA-Color-Cream-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1%E0%B8%AD%E0%B8%AD%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-%E0%B8%A2%E0%B8%B2%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B5-9-%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5-100-ml.-i.78549877.18365751175?sp_atk=6c397e9f-5d0a-45b1-b81a-a85d1d97fa8c&amp;xptdk=6c397e9f-5d0a-45b1-b81a-a85d1d97fa8c</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-llbtaowraksed6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-lgnluhd6eius85_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>-72%</v>
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>[ของแท้] ครีมไฝคุณยาย ขี้แมลงวัน ติ่งเนื้อ หูด ตาปลา แก้ปัญหา กระ สิวหิน  ครีมแต้มไฝคุณยาย ไฝ หูด จี้ไฝ แต้มไฝ</v>
+        <v>-99%</v>
       </c>
       <c r="E48" t="str">
-        <v/>
+        <v>(พร้อมส่ง 9 สี) 🎨KOTA Color Cream สีย้อมผมออแกนิค ยาย้อมผม มี 9 เฉดสี 100 ml.</v>
       </c>
       <c r="F48" t="str">
         <v>-</v>
       </c>
       <c r="G48" t="str">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="H48" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 53.1พัน ชิ้น</v>
       </c>
       <c r="I48" t="str">
-        <v>270</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="J48" t="str">
-        <v>ขายแล้ว 44.7พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="K48" t="str">
-        <v>จังหวัดอำนาจเจริญ</v>
+        <v>฿</v>
       </c>
       <c r="L48" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M48" t="str">
-        <v/>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/*%E0%B8%A5%E0%B8%9445.-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-C4ZQZR*-Old-Spice-Tester-%E0%B9%80%E0%B8%97%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B8%94%E0%B8%A5%E0%B8%AD%E0%B8%87-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%AD%E0%B8%AD%E0%B8%99-2ml-by-The-Myth-%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9F%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%82%E0%B8%B2%E0%B8%A7-i.272215411.14822838431?sp_atk=9275dce3-1cc5-4b3c-b6bc-884f5c46ef43&amp;xptdk=9275dce3-1cc5-4b3c-b6bc-884f5c46ef43</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.18128647861?sp_atk=f7660309-15de-486b-a890-987267f29ca0&amp;xptdk=f7660309-15de-486b-a890-987267f29ca0</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/5cdd85177886d96c204757bb41b1e98f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5766a3d7d4256e7ba90041316dae8f83_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>-50%</v>
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>*ลด45.-ใส่โค้ด C4ZQZR* Old Spice Tester เทสเตอร์ทดลอง โรลออน 2ml by The Myth ทุกกลิ่นรวมเนื้อฟ้าและเนื้อขาว</v>
+        <v>-40%</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
       </c>
       <c r="F49" t="str">
         <v>-</v>
       </c>
       <c r="G49" t="str">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H49" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 79.5พัน ชิ้น</v>
       </c>
       <c r="I49" t="str">
-        <v>10</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J49" t="str">
-        <v>ขายแล้ว 61.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L49" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.18128647861?sp_atk=7622641e-3647-4b08-8c48-75592b9ddd3a&amp;xptdk=7622641e-3647-4b08-8c48-75592b9ddd3a</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89100-%F0%9F%94%A5%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AA%E0%B8%B5-Madame-Fin-30ml.%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%83%E0%B8%8A%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%89%E2%80%8B%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E2%80%8B-i.526457740.10745051136?sp_atk=430cdd8a-0f65-4c53-ad70-f8d8e93711a8&amp;xptdk=430cdd8a-0f65-4c53-ad70-f8d8e93711a8</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/5766a3d7d4256e7ba90041316dae8f83_tn</v>
+        <v>https://down-th.img.susercontent.com/file/2db22a97aeeeae8fc518e84cf41053de_tn</v>
       </c>
       <c r="C50" t="str">
-        <v>-40%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D50" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭 เล็บปลอม สไตล์โมเดิร์น ใช้งานง่าย 24 ชิ้น พร้อมส่ง</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>พร้อมส่งทุกสี/ของแท้100%🔥น้ำหอมมาดามฟิน ครบทุกสี Madame Fin 30ml.ไม่ใช่ของเทียบแท้​ไม่กรีดรหัส​</v>
       </c>
       <c r="F50" t="str">
         <v>-</v>
       </c>
       <c r="G50" t="str">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="H50" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 45พัน ชิ้น</v>
       </c>
       <c r="I50" t="str">
-        <v>12</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J50" t="str">
-        <v>ขายแล้ว 79.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L50" t="str">
-        <v/>
-      </c>
-      <c r="M50" t="str">
-        <v/>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/Magic-CASA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%82%E0%B8%B2%E0%B8%A7-i.121739699.13194972783?sp_atk=41b1dfbe-b766-4d3c-92e2-a4ecae960602&amp;xptdk=41b1dfbe-b766-4d3c-92e2-a4ecae960602</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%A5%E0%B8%B8%E0%B8%94%E0%B8%A3%E0%B9%88%E0%B8%A7%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-i.148820479.9129920332?sp_atk=5fe62d90-9a60-4aca-827f-1b7c330c2833&amp;xptdk=5fe62d90-9a60-4aca-827f-1b7c330c2833</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/7294612cfd80c0084ba693a4d2dd95e8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5173c01dfe61d3ae73a7a89ac28d9d13_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>-80%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D51" t="str">
-        <v>Magic CASA ลิปสติก เนื้อแมตต์กํามะหยี่ ให้ความชุ่มชื้น ไม่แห้ง และขาว</v>
+        <v>-99%</v>
       </c>
       <c r="E51" t="str">
-        <v/>
+        <v>มาสคาร่า กันน้ำ ติดทนนาน ขนตายาว ไม่หลุดร่วงง่าย หัวแปรงยาว และบางเป็นธรรมชาติ นุ่ม</v>
       </c>
       <c r="F51" t="str">
         <v>-</v>
       </c>
       <c r="G51" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 581.6พัน ชิ้น</v>
       </c>
       <c r="I51" t="str">
-        <v>19</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J51" t="str">
-        <v>ขายแล้ว 46พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K51" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L51" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Peptide-Acne-Gel-B3-Acne-Concentrate-Serum-i.15147300.14207904594?sp_atk=84912381-21ae-4e9a-89df-0468b124dfac&amp;xptdk=84912381-21ae-4e9a-89df-0468b124dfac</v>
+        <v>https://shopee.co.th/CeraVe-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%B5-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%8B%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A3%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-50-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.31092295.1692472780?sp_atk=c84c07fd-1768-47ea-aba7-01b25434aa1f&amp;xptdk=c84c07fd-1768-47ea-aba7-01b25434aa1f</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-lh6fzgewh2wk88_tn</v>
+        <v>https://down-th.img.susercontent.com/file/555aaead9e2c18f01eb4729f71b224ed_tn</v>
       </c>
       <c r="C52" t="str">
-        <v>-70%</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>ถูก/แท้/ส่งฟรี (หลอด) เจลแต้มสิว MizuMi เซรั่มลดรอยสิว MizuMi มิซึมิ Peptide Acne Gel B3 Acne Concentrate Serum</v>
+        <v>-15%</v>
       </c>
       <c r="E52" t="str">
-        <v/>
+        <v>CeraVe เซราวี มอยซ์เจอร์ไรซิ่ง ครีม 50 กรัม</v>
       </c>
       <c r="F52" t="str">
-        <v>฿229</v>
+        <v>฿210</v>
       </c>
       <c r="G52" t="str">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>ขายแล้ว 34.9พัน ชิ้น</v>
       </c>
       <c r="I52" t="str">
-        <v/>
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
       <c r="J52" t="str">
-        <v>ขายแล้ว 67.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K52" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M52" t="str">
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8F-DAYSE-x-COSLUXE-Lash-Adhesive-White-Waterproof-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A5%E0%B8%B8%E0%B8%84-%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.11210871.886718034?sp_atk=e8fcb91a-b58f-41e7-880b-468a161ffae0&amp;xptdk=e8fcb91a-b58f-41e7-880b-468a161ffae0</v>
+        <v>https://shopee.co.th/-9.9%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-R416-R540-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%A5%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%97%E0%B8%B3%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.252770425.21012949611?sp_atk=d439f4ce-0217-40a2-ad2f-2274a30d4bc8&amp;xptdk=d439f4ce-0217-40a2-ad2f-2274a30d4bc8</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbnb-lq1gna9kinmu60_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b333ac4c492526acd3964c2b1bb7c12b_tn</v>
       </c>
       <c r="C53" t="str">
-        <v>-19%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D53" t="str">
-        <v>♦️ของแท้·ส่งด่วน·ถูก♦️ DAYSE x COSLUXE: Lash Adhesive White Waterproof : คอสลุค กาว กาวติดขนตาปลอม กาวติดขนตา</v>
+        <v>-53%</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>[9.9เก็บโค้ดส่งฟรีหน้าร้าน]เล็บปลอม [R416-R540]เล็บปลอมกันน้ำ เล็บปลอมทาสีแล้ว เล็บเจล เล็บปลอมสำเร็จรูป อุปกรณ์ทำเล็บ</v>
       </c>
       <c r="F53" t="str">
         <v>-</v>
       </c>
       <c r="G53" t="str">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H53" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 18.5พัน ชิ้น</v>
       </c>
       <c r="I53" t="str">
-        <v>118</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J53" t="str">
-        <v>ขายแล้ว 57พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K53" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L53" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.171353391.7736148660?sp_atk=40daddb9-175f-41af-87ac-d88862a37046&amp;xptdk=40daddb9-175f-41af-87ac-d88862a37046</v>
+        <v>https://shopee.co.th/%E0%B8%A3%E0%B8%94%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-RADA-Lady-Care-Dara-Serum-%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%94%E0%B8%B2%E0%B8%A3%E0%B8%B2-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-i.824626228.17080110584?sp_atk=cefea65b-d732-44e0-894e-7601f8b41a48&amp;xptdk=cefea65b-d732-44e0-894e-7601f8b41a48</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llfaskir35ws04_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll049aribyss23_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>-98%</v>
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>เล็บแฟชั่น เล็บปลอม ชนิดอะคริลิค สไตล์ฝรั่งเศส สีขาว ชมพู 24 ชิ้น</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>รดาเลดี้แคร์ RADA Lady Care  Dara Serum ล้างจุดซ่อนเร้น เลดี้/ดารา ขวดเล็กและหัวปั๊ม สเปรย์บำรุงกลิ่น</v>
       </c>
       <c r="F54" t="str">
         <v>-</v>
       </c>
       <c r="G54" t="str">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H54" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 59.6พัน ชิ้น</v>
       </c>
       <c r="I54" t="str">
-        <v>8</v>
+        <v>จังหวัดปราจีนบุรี</v>
       </c>
       <c r="J54" t="str">
-        <v>ขายแล้ว 783.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K54" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/Magiccasa-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81-6-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.228257194.21663743770?sp_atk=7b7692c7-6d28-40b5-ba28-82d39fabfccf&amp;xptdk=7b7692c7-6d28-40b5-ba28-82d39fabfccf</v>
+        <v>https://shopee.co.th/lameila-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%AD%E0%B8%99%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-3.5-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.175811264.5863658313?sp_atk=7b2a6de2-8797-4c30-aa82-5ce9c8fddd19&amp;xptdk=7b2a6de2-8797-4c30-aa82-5ce9c8fddd19</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23010-ukx0g7sjzymv6e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134211-7r98o-lkkhcazoma1m66_tn</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D55" t="str">
-        <v>Magiccasa ชุดลิปสติก เคลือบริมฝีปาก 6 ชิ้น</v>
+        <v>-94%</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>lameila มาสคาร่า ปัดขนตางอนยาว ขนาด 3.5 กรัม</v>
       </c>
       <c r="F55" t="str">
         <v>-</v>
       </c>
       <c r="G55" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H55" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 262.4พัน ชิ้น</v>
       </c>
       <c r="I55" t="str">
-        <v>46</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J55" t="str">
-        <v>ขายแล้ว 73.7พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="K55" t="str">
-        <v>ต่างประเทศ</v>
+        <v>฿</v>
       </c>
       <c r="L55" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/(%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94)%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%95%E0%B9%89%E0%B8%A1%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-MizuMi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B9%E0%B8%A1%E0%B8%B4-Peptide-Acne-Gel-B3-Acne-Concentrate-Serum-%E0%B8%9F%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%A7-%E0%B8%94%E0%B8%B3-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-i.12617842.4658884885?sp_atk=a831a7f3-407f-4005-9301-18650d230686&amp;xptdk=a831a7f3-407f-4005-9301-18650d230686</v>
+        <v>https://shopee.co.th/NAGARAKU-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-16-%E0%B9%81%E0%B8%96%E0%B8%A7-i.80231784.2909708341?sp_atk=2acbcdf7-c521-45eb-bb62-1627f5e5d5ac&amp;xptdk=2acbcdf7-c521-45eb-bb62-1627f5e5d5ac</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-loxefpjt60kpee_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8e4f2fac5bcc0a78a014d5b3bea62656_tn</v>
       </c>
       <c r="C56" t="str">
-        <v>-70%</v>
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>(หลอด)เจลแต้มสิว MizuMi เซรั่มลดรอยสิว MizuMi มิซึมิ มิซูมิ Peptide Acne Gel B3 Acne Concentrate Serum ฟ้า เขียว ดำ ชมพู</v>
+        <v>-12%</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>NAGARAKU ขนตาปลอม ขนมิงค์เทียม นิ่ม 16 แถว</v>
       </c>
       <c r="F56" t="str">
-        <v>-</v>
+        <v>฿78</v>
       </c>
       <c r="G56" t="str">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H56" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 92.9พัน ชิ้น</v>
       </c>
       <c r="I56" t="str">
-        <v>79</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J56" t="str">
-        <v>ขายแล้ว 27.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K56" t="str">
-        <v>จังหวัดอุดรธานี</v>
+        <v/>
       </c>
       <c r="L56" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M56" t="str">
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%8B%E0%B8%B1%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5-Sunsilk-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-60-70-%E0%B8%A1%E0%B8%A5.1-%E0%B8%82%E0%B8%A7%E0%B8%94-%F0%9F%A7%B4-i.43307646.19403297925?sp_atk=5c66407c-7920-4977-a09e-38c428fbe3a7&amp;xptdk=5c66407c-7920-4977-a09e-38c428fbe3a7</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.171353391.7736148660?sp_atk=2d04f876-1712-46db-9e81-88670de06664&amp;xptdk=2d04f876-1712-46db-9e81-88670de06664</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lnu410e7smk0c8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llfaskir35ws04_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>-38%</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>แชมพู ครีมนวดผม ซันซิล Sunsilk  ขนาด 60/70 มล.1 ขวด 🧴</v>
+        <v>-98%</v>
       </c>
       <c r="E57" t="str">
-        <v/>
+        <v>เล็บแฟชั่น เล็บปลอม ชนิดอะคริลิค สไตล์ฝรั่งเศส สีขาว ชมพู 24 ชิ้น</v>
       </c>
       <c r="F57" t="str">
-        <v>฿29</v>
+        <v>-</v>
       </c>
       <c r="G57" t="str">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>ขายแล้ว 783.2พัน ชิ้น</v>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J57" t="str">
-        <v>ขายแล้ว 27.4พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K57" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L57" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/Ur-SUGAR-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-7.5-%E0%B8%A1%E0%B8%A5.-i.706194864.12480718063?sp_atk=921b84fe-f5b2-49a0-bd12-fac5a11bd837&amp;xptdk=921b84fe-f5b2-49a0-bd12-fac5a11bd837</v>
+        <v>https://shopee.co.th/-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%99-%E0%B9%81%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9F%E0%B9%8C%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%9F%E0%B9%80%E0%B8%8A%E0%B8%B5%E0%B8%A2%E0%B8%A5-%E0%B8%A7%E0%B8%AD%E0%B8%8A-150%E0%B8%A1%E0%B8%A5.-x-2-Clean-Clear-Essentials-Self-Foaming-Facial-Wash-150ml.-x-2-i.63669256.1937293691?sp_atk=2bb71530-b779-43a0-9425-d12014208895&amp;xptdk=2bb71530-b779-43a0-9425-d12014208895</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/bb68f99cecbbf11246e7bdda39d7ab27_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-7r98s-lq5343eewdes10_tn</v>
       </c>
       <c r="C58" t="str">
-        <v>-84%</v>
+        <v/>
       </c>
       <c r="D58" t="str">
-        <v>Ur SUGAR ยาทาเล็บเจล กลิตเตอร์ สีชมพู 7.5 มล.</v>
+        <v>-6%</v>
       </c>
       <c r="E58" t="str">
-        <v>ซื้อ 2 ชิ้น ลด 3%</v>
+        <v>[แพ็คคู่] คลีน แอนด์ เคลียร์ โฟมล้างหน้า เซลฟ์โฟมมิ่ง เฟเชียล วอช 150มล. x 2 Clean &amp; Clear Essentials Self Foaming Facial Wash 150ml. x 2</v>
       </c>
       <c r="F58" t="str">
-        <v>-</v>
+        <v>฿310</v>
       </c>
       <c r="G58" t="str">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="H58" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 49.2พัน ชิ้น</v>
       </c>
       <c r="I58" t="str">
-        <v>32</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J58" t="str">
-        <v>ขายแล้ว 22.8พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="K58" t="str">
-        <v>ต่างประเทศ</v>
+        <v/>
       </c>
       <c r="L58" t="str">
         <v/>
-      </c>
-      <c r="M58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/BEIKOTT-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%A5%E0%B8%B8%E0%B8%94%E0%B8%A3%E0%B9%88%E0%B8%A7%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A7%E0%B9%84%E0%B8%97%E0%B8%A2-i.606860656.12676324720?sp_atk=6d0df665-d549-4730-b5d0-2cd90f45e293&amp;xptdk=6d0df665-d549-4730-b5d0-2cd90f45e293</v>
+        <v>https://shopee.co.th/%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-%E0%B8%97%E0%B8%B2%E0%B8%95%E0%B8%B2-4.8g-OD276-odbo-Signature-Eyeshadow-Palette-i.1151469.19027757698?sp_atk=fa99402a-0fae-4d79-9c6b-038a7f409563&amp;xptdk=fa99402a-0fae-4d79-9c6b-038a7f409563</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lnqk6cb7y5bb06_tn</v>
+        <v>https://down-th.img.susercontent.com/file/c5b880d1f22ec239e9695d361c406af1_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>-97%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D59" t="str">
-        <v>BEIKOTT มาสคาร่า มาสคาร่าขนาดเล็ก กันน้ำ ติดทนนาน ไม่หลุดร่วงง่าย หัวแปรงยาว และบางเป็นธรรมชาติ นุ่ม ผู้ขายชาวไทย</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v/>
+        <v>โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท ทาตา 4.8g OD276 odbo Signature Eyeshadow Palette</v>
       </c>
       <c r="F59" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H59" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 28.1พัน ชิ้น</v>
       </c>
       <c r="I59" t="str">
-        <v>11</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J59" t="str">
-        <v>ขายแล้ว 142.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="K59" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="L59" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/P-01%F0%9F%8C%9F%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B8%9F%E0%B8%AD%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%81%E0%B8%B4%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-i.250814349.22706375719?sp_atk=eb7891c6-c79b-470b-85e9-67976c3a4bca&amp;xptdk=eb7891c6-c79b-470b-85e9-67976c3a4bca</v>
+        <v>https://shopee.co.th/%E2%9C%A8%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%80%BC%EF%B8%8F-%E0%B9%82%E0%B8%A3%E0%B8%A5%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B9%81%E0%B8%81%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%AA%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-1-%E0%B9%81%E0%B8%A5%E0%B8%B0-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.431197742.10234460003?sp_atk=162e45ef-85ca-431d-abc6-4981c391e980&amp;xptdk=162e45ef-85ca-431d-abc6-4981c391e980</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-ubzn5ohm33jv41_tn</v>
+        <v>https://down-th.img.susercontent.com/file/0f0f3d02adf287997c685397faf85e5a_tn</v>
       </c>
       <c r="C60" t="str">
-        <v>-75%</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D60" t="str">
-        <v>P-01🌟พัฟฟองน้ำแต่งหน้าพัฟขนาดใหญ่สวมนิ้ว สําหรับลงรองพื้นคอนซีลเลอร์ นุ่มพิเศษ ฟองน้ำรองพื้น เกลี่ยรองพื้น ไม่กินรองพื้น</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>✨พร้อมส่ง‼️ โรลม้วนผม ขนาดยาวพิเศษ แกนใหญ่ / คละสีได้ แพ็ค 1 และ 2 ชิ้น</v>
       </c>
       <c r="F60" t="str">
         <v>-</v>
       </c>
       <c r="G60" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H60" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 52พัน ชิ้น</v>
       </c>
       <c r="I60" t="str">
-        <v>49</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J60" t="str">
-        <v>ขายแล้ว 27.2พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K60" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>฿</v>
       </c>
       <c r="L60" t="str">
-        <v>ร้านแนะนำ</v>
-      </c>
-      <c r="M60" t="str">
-        <v/>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%A3%E0%B8%94%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-RADA-Lady-Care-Dara-Serum-%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%B8%E0%B8%94%E0%B8%8B%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A3%E0%B9%89%E0%B8%99-%E0%B9%80%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%94%E0%B8%B2%E0%B8%A3%E0%B8%B2-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-i.824626228.17080110584?sp_atk=63bb7341-1b6f-4fb0-985b-74bca6c2c616&amp;xptdk=63bb7341-1b6f-4fb0-985b-74bca6c2c616</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.17532392505?sp_atk=bf5f6f83-0fc9-4a09-8fbf-7420336203f4&amp;xptdk=bf5f6f83-0fc9-4a09-8fbf-7420336203f4</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll049aribyss23_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e71ae020df97e8e723bacdac6e1b8fd5_tn</v>
       </c>
       <c r="C61" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D61" t="str">
-        <v>รดาเลดี้แคร์ RADA Lady Care  Dara Serum ล้างจุดซ่อนเร้น เลดี้/ดารา ขวดเล็กและหัวปั๊ม สเปรย์บำรุงกลิ่น</v>
+        <v>-63%</v>
       </c>
       <c r="E61" t="str">
-        <v/>
+        <v>เล็บปลอม ทรงกลมสั้น ไม่มีกาว 24 ชิ้น</v>
       </c>
       <c r="F61" t="str">
         <v>-</v>
       </c>
       <c r="G61" t="str">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H61" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 37.9พัน ชิ้น</v>
       </c>
       <c r="I61" t="str">
-        <v>119</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="J61" t="str">
-        <v>ขายแล้ว 59.6พัน ชิ้น</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="K61" t="str">
-        <v>จังหวัดปราจีนบุรี</v>
+        <v>฿</v>
       </c>
       <c r="L61" t="str">
-        <v/>
-      </c>
-      <c r="M61" t="str">
-        <v/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
